--- a/ask-read-data/wDocument/asuka序列管理の説明書.xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の説明書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\asuka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B250CE-3022-4D6A-B944-D43E9CD7C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BDF5B-81AD-4010-9B0D-0A32BA575CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ取込画面" sheetId="1" r:id="rId1"/>
@@ -1696,13 +1696,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>339090</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>162647</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>127285</xdr:rowOff>
+      <xdr:rowOff>134905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1725,7 +1725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3021330" y="6879590"/>
+          <a:off x="3021330" y="6887210"/>
           <a:ext cx="3846917" cy="334295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1740,13 +1740,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>345440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>367075</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>195865</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,8 +1769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3027680" y="6719570"/>
-          <a:ext cx="3374435" cy="334295"/>
+          <a:off x="3027680" y="6704330"/>
+          <a:ext cx="3374435" cy="344170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6606,8 +6606,8 @@
   </sheetPr>
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6648,8 +6648,8 @@
   </sheetPr>
   <dimension ref="B3:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/ask-read-data/wDocument/asuka序列管理の説明書.xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の説明書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BDF5B-81AD-4010-9B0D-0A32BA575CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ED6AE-55F7-4262-988A-34FC9D401E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6606,8 +6606,8 @@
   </sheetPr>
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
